--- a/biology/Neurosciences/Mécanorécepteur/Mécanorécepteur.xlsx
+++ b/biology/Neurosciences/Mécanorécepteur/Mécanorécepteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9canor%C3%A9cepteur</t>
+          <t>Mécanorécepteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mécanorécepteur est un terme générique pour désigner des neurones sensoriels sensibles aux déformations mécaniques. De plus en plus souvent les scientifiques et le corps médical désignent par mécanoception cette sous-catégorie du sens du  toucher, au côté de la thermoception.
 Parmi les mécanorécepteurs, on distingue les mécanorécepteurs cutanés et les propriocepteurs. Ils répondent à des stimuli de différentes natures et de différentes intensités. Ils possèdent des vitesses d'adaptation et de conduction différentes selon le type de récepteurs. La vitesse d’adaptation est définie comme une perte progressive de la sensibilité des récepteurs lorsque la stimulation est maintenue constante pendant un certain temps. La vitesse de conduction est la vitesse à laquelle les fibres nerveuses transmettent l’influx nerveux jusqu’au système nerveux central.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9canor%C3%A9cepteur</t>
+          <t>Mécanorécepteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,22 +526,12 @@
           <t>Mécanorécepteurs cutanés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La sensibilité cutanée répond à trois qualités : la pression, le toucher et la vibration. Ces qualités sont exercées grâce à la présence de récepteurs sensoriels appelés les mécanorécepteurs localisés à différentes épaisseurs de la peau. On distingue deux types de peau : la peau glabre et la peau velue ; qui possèdent certains mécanorécepteurs en commun et d’autres permettant de les différencier.
-Mécanorécepteurs en commun
-Les mécanorécepteurs localisés dans les deux types de peau sont : 
-les Corpuscules de Ruffini : ils sont localisés dans le chorion et ils ont une vitesse de conduction lente (50-70 m/s). Ils sont toniques et possèdent un champ récepteur étendu[1] ;
-les Corpuscules de Pacini : ils sont localisés dans le tissu sous-cutané et ils ont une vitesse de conduction rapide (57-75 m/s). Ils sont phasiques et possèdent un champ récepteur étendu[2] ;
-les terminaisons libres : elles sont localisées dans l'épiderme et elles ont une vitesse de conduction rapide. Elles sont toniques et possèdent un champ récepteur restreint.
-Peau glabre
-Les mécanorécepteurs localisés uniquement dans la peau glabre sont :
-les disques de Merkel : ils sont localisés dans la partie supérieure du chorion et ils ont une vitesse de conduction lente (40-70 m/s). Ils sont toniques et possèdent un champ récepteur restreint (2 à 4 mm2)[1] ;
-les Corpuscules de Meissner : ils sont localisés dans la partie supérieure du chorion et ils ont une vitesse de conduction rapide (54-60 m/s). Ils sont phasiques et possèdent un champ récepteur restreint (2 à 4 mm2)[1].
-Peau velue
-Les mécanorécepteurs localisés uniquement dans la peau velue sont : 
-les plaques de toucher[2] : elles sont localisées dans l’épiderme et ont une vitesse de conduction lente ;
-les récepteurs du follicule pileux : ils s’étendent de l’épiderme jusqu’au chorion et ils ont une vitesse de conduction rapide[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sensibilité cutanée répond à trois qualités : la pression, le toucher et la vibration. Ces qualités sont exercées grâce à la présence de récepteurs sensoriels appelés les mécanorécepteurs localisés à différentes épaisseurs de la peau. On distingue deux types de peau : la peau glabre et la peau velue ; qui possèdent certains mécanorécepteurs en commun et d’autres permettant de les différencier.
+</t>
         </is>
       </c>
     </row>
@@ -539,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9canor%C3%A9cepteur</t>
+          <t>Mécanorécepteur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,13 +556,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Statorécepteurs</t>
+          <t>Mécanorécepteurs cutanés</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les statorécepteurs perçoivent les changements de position du corps dans l'espace. Ce sont les agents de l'équilibration[3]. Le statocyste est un stato-récepteur élémentaire.
-</t>
+          <t>Mécanorécepteurs en commun</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les mécanorécepteurs localisés dans les deux types de peau sont : 
+les Corpuscules de Ruffini : ils sont localisés dans le chorion et ils ont une vitesse de conduction lente (50-70 m/s). Ils sont toniques et possèdent un champ récepteur étendu ;
+les Corpuscules de Pacini : ils sont localisés dans le tissu sous-cutané et ils ont une vitesse de conduction rapide (57-75 m/s). Ils sont phasiques et possèdent un champ récepteur étendu ;
+les terminaisons libres : elles sont localisées dans l'épiderme et elles ont une vitesse de conduction rapide. Elles sont toniques et possèdent un champ récepteur restreint.</t>
         </is>
       </c>
     </row>
@@ -570,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9canor%C3%A9cepteur</t>
+          <t>Mécanorécepteur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,54 +595,236 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mécanorécepteurs cutanés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Peau glabre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les mécanorécepteurs localisés uniquement dans la peau glabre sont :
+les disques de Merkel : ils sont localisés dans la partie supérieure du chorion et ils ont une vitesse de conduction lente (40-70 m/s). Ils sont toniques et possèdent un champ récepteur restreint (2 à 4 mm2) ;
+les Corpuscules de Meissner : ils sont localisés dans la partie supérieure du chorion et ils ont une vitesse de conduction rapide (54-60 m/s). Ils sont phasiques et possèdent un champ récepteur restreint (2 à 4 mm2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mécanorécepteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9canor%C3%A9cepteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mécanorécepteurs cutanés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Peau velue</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les mécanorécepteurs localisés uniquement dans la peau velue sont : 
+les plaques de toucher : elles sont localisées dans l’épiderme et ont une vitesse de conduction lente ;
+les récepteurs du follicule pileux : ils s’étendent de l’épiderme jusqu’au chorion et ils ont une vitesse de conduction rapide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mécanorécepteur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9canor%C3%A9cepteur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Statorécepteurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les statorécepteurs perçoivent les changements de position du corps dans l'espace. Ce sont les agents de l'équilibration. Le statocyste est un stato-récepteur élémentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mécanorécepteur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9canor%C3%A9cepteur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Propriocepteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les propriocepteurs[1] sont les mécanorécepteurs musculaires et articulaires. Ils permettent de connaître la position du corps dans l'espace et des segments corporels les uns aux autres. Ils sont sensibles à la position du corps, aux mouvements et à la force[4].
-Types de récepteurs
-Il existe quatre grands types de récepteurs :
-les terminaisons primaires du fuseau neuromusculaire[1] ;
-les terminaisons secondaires du fuseau neuromusculaire[1] ;
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les propriocepteurs sont les mécanorécepteurs musculaires et articulaires. Ils permettent de connaître la position du corps dans l'espace et des segments corporels les uns aux autres. Ils sont sensibles à la position du corps, aux mouvements et à la force.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mécanorécepteur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9canor%C3%A9cepteur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Propriocepteurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Types de récepteurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il existe quatre grands types de récepteurs :
+les terminaisons primaires du fuseau neuromusculaire ;
+les terminaisons secondaires du fuseau neuromusculaire ;
 Tous deux répondent aux étirements musculaires.
-les organes tendineux de Golgi détectant la tension musculaire[1] ;
-les mécanorécepteurs articulaires répondant aux mouvements de l’articulation[1].
-Propriétés
-Les terminaisons primaires du fuseau neuromusculaire sont liées aux fibres Ia et possèdent une vitesse de conduction (72-120 m/s) supérieure à celles des terminaisons secondaires du fuseau neuromusculaire liés aux fibres II (30-66 m/s).
+les organes tendineux de Golgi détectant la tension musculaire ;
+les mécanorécepteurs articulaires répondant aux mouvements de l’articulation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mécanorécepteur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9canor%C3%A9cepteur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Propriocepteurs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les terminaisons primaires du fuseau neuromusculaire sont liées aux fibres Ia et possèdent une vitesse de conduction (72-120 m/s) supérieure à celles des terminaisons secondaires du fuseau neuromusculaire liés aux fibres II (30-66 m/s).
 Les récepteurs situés au niveau des organes tendineux de Golgi et des articulations sont formés par les corpuscules de Ruffini à adaptation lente et par des corpuscules de Pacini à adaptation rapide.
 Les organes tendineux de Golgi sont aussi liés aux fibres Ib avec une vitesse de conduction très supérieure (72-110 m/s) à celles des mécanorécepteurs articulaires liés aux fibres II-III (12-90 m/s).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M%C3%A9canor%C3%A9cepteur</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9canor%C3%A9cepteur</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mécanorécepteur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9canor%C3%A9cepteur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Codage de l’information</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le codage de l'information se fait par deux étapes qui sont la transduction et la transmission. La transduction[6] est générée par un stimulus qui entraîne des modifications des membranes des récepteurs. Ces modifications ont lieu sur des protéines ou des canaux qui s'ouvrent en laissant passer les ions qui vont permettre une dépolarisation. Cette dépolarisation qui est locale est appelée potentiel récepteur[7] et donnera naissance à un potentiel générateur. 
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le codage de l'information se fait par deux étapes qui sont la transduction et la transmission. La transduction est générée par un stimulus qui entraîne des modifications des membranes des récepteurs. Ces modifications ont lieu sur des protéines ou des canaux qui s'ouvrent en laissant passer les ions qui vont permettre une dépolarisation. Cette dépolarisation qui est locale est appelée potentiel récepteur et donnera naissance à un potentiel générateur. 
 Celui-ci augmente avec l'intensité du stimulus et une fois le seuil atteint (ou valeur critique), il déclenchera des potentiels d'action. 
 Il y a ensuite la transmission qui se caractérise par la propagation des potentiels d'action par la fibre nerveuse.
 Le codage se fait alors en fréquence des potentiels d'action.
